--- a/data/Allom/species data.xlsx
+++ b/data/Allom/species data.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\OneDrive\OneDrive - UDEP\For Change\products\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://udepoffice365ms-my.sharepoint.com/personal/pablo_salazar_udep_edu_pe/Documents/ForChange/data/Allom/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_0A7C5D8D31D1529515AB99D7F11E3CD1B3AEE4A0" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{3E009BE9-6968-4C65-88FD-B53FDF05A634}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7300" activeTab="2"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
@@ -26,8 +27,8 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="test" type="6" refreshedVersion="5" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="test" type="6" refreshedVersion="5" background="1" saveData="1">
     <textPr codePage="850" sourceFile="E:\OneDrive\OneDrive - UDEP\For Change\Data\test.csv" comma="1">
       <textFields count="4">
         <textField/>
@@ -565,7 +566,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -1069,7 +1070,7 @@
     <cellStyle name="60% - Énfasis4" xfId="33" builtinId="44" customBuiltin="1"/>
     <cellStyle name="60% - Énfasis5" xfId="37" builtinId="48" customBuiltin="1"/>
     <cellStyle name="60% - Énfasis6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Buena" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Bueno" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Celda de comprobación" xfId="13" builtinId="23" customBuiltin="1"/>
     <cellStyle name="Celda vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
@@ -1108,7 +1109,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="test" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="test" connectionId="1" xr16:uid="{00000000-0016-0000-0100-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1373,414 +1374,414 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A81"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>80</v>
       </c>
@@ -1791,22 +1792,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H52"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="G17" sqref="G17:H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>81</v>
       </c>
@@ -1817,7 +1818,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1831,7 +1832,7 @@
         <v>595050.30553744698</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1845,7 +1846,7 @@
         <v>257.17521874440303</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1859,7 +1860,7 @@
         <v>531.74259470677805</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1873,7 +1874,7 @@
         <v>95269.731558923901</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1887,7 +1888,7 @@
         <v>1772572.2959111901</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1901,7 +1902,7 @@
         <v>3913.4690077968098</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1915,7 +1916,7 @@
         <v>450.49292215098802</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1929,7 +1930,7 @@
         <v>71212.591492614898</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1943,7 +1944,7 @@
         <v>6176.70830179718</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1957,7 +1958,7 @@
         <v>344.32237235409298</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1971,7 +1972,7 @@
         <v>6722.4592159878002</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1985,7 +1986,7 @@
         <v>1526127.03912427</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1999,7 +2000,7 @@
         <v>294779.41657305701</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2013,7 +2014,7 @@
         <v>3477.0620030650898</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2027,7 +2028,7 @@
         <v>2274.4977293633401</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2047,7 +2048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2067,7 +2068,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2087,7 +2088,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2101,7 +2102,7 @@
         <v>5825.1947937272998</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2115,7 +2116,7 @@
         <v>68.923832367493105</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2129,7 +2130,7 @@
         <v>679364.29157091398</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2143,7 +2144,7 @@
         <v>6068.3174755757</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2157,7 +2158,7 @@
         <v>6968.6548107541803</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2171,7 +2172,7 @@
         <v>9023.2784436424099</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2185,7 +2186,7 @@
         <v>128.80688418513699</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2199,7 +2200,7 @@
         <v>26951.112787417998</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2213,7 +2214,7 @@
         <v>17048.727398613701</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2227,7 +2228,7 @@
         <v>3208642.6100665601</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2241,7 +2242,7 @@
         <v>4476954.11979842</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2255,7 +2256,7 @@
         <v>4043611.8272505198</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2269,7 +2270,7 @@
         <v>4877538.3982244097</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2283,7 +2284,7 @@
         <v>96547.164414070896</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2297,7 +2298,7 @@
         <v>533873.56380335602</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2311,7 +2312,7 @@
         <v>3521.11619641682</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2325,7 +2326,7 @@
         <v>273291.35208186501</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2339,7 +2340,7 @@
         <v>159359.52665125101</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2353,7 +2354,7 @@
         <v>214709.67798819501</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2367,7 +2368,7 @@
         <v>1657315.9169519199</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2381,7 +2382,7 @@
         <v>1310646.2173643601</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2395,7 +2396,7 @@
         <v>13828718.0129584</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2409,7 +2410,7 @@
         <v>130425.93137203201</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2423,7 +2424,7 @@
         <v>8698434.5499578491</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2437,7 +2438,7 @@
         <v>4529.6881973662303</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2451,7 +2452,7 @@
         <v>29211.128237389199</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2465,7 +2466,7 @@
         <v>4581.7842918290999</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2479,7 +2480,7 @@
         <v>169.43434904037099</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2493,7 +2494,7 @@
         <v>8697.7669370836902</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2507,7 +2508,7 @@
         <v>4230.2284554682601</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2521,7 +2522,7 @@
         <v>6871.7880316470901</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2535,7 +2536,7 @@
         <v>37.293710768553403</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2550,25 +2551,25 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B52:B80"/>
+  <autoFilter ref="B52:B80" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="24.26953125" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>172</v>
       </c>
@@ -2603,7 +2604,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>11</v>
       </c>
@@ -2638,7 +2639,7 @@
         <v>0.22994000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>13</v>
       </c>
@@ -2673,7 +2674,7 @@
         <v>0.22994000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>15</v>
       </c>
@@ -2708,7 +2709,7 @@
         <v>0.22994000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>415</v>
       </c>
@@ -2743,7 +2744,7 @@
         <v>0.22994000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>215</v>
       </c>
@@ -2778,7 +2779,7 @@
         <v>0.22994000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>65</v>
       </c>
@@ -2813,7 +2814,7 @@
         <v>0.22994000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>59</v>
       </c>
@@ -2848,7 +2849,7 @@
         <v>0.22994000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>16</v>
       </c>
@@ -2883,7 +2884,7 @@
         <v>0.22994000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>4</v>
       </c>
@@ -2918,7 +2919,7 @@
         <v>0.22994000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>97</v>
       </c>
@@ -2953,7 +2954,7 @@
         <v>0.22994000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>53</v>
       </c>
@@ -2988,7 +2989,7 @@
         <v>0.22994000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>253</v>
       </c>
@@ -3023,7 +3024,7 @@
         <v>0.22994000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>56</v>
       </c>
@@ -3058,7 +3059,7 @@
         <v>0.22994000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>356</v>
       </c>
@@ -3093,7 +3094,7 @@
         <v>0.22994000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>94</v>
       </c>
@@ -3128,7 +3129,7 @@
         <v>3.7231E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>18</v>
       </c>
@@ -3163,47 +3164,53 @@
         <v>6.3673999999999994E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>68</v>
+      </c>
       <c r="B18" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>158</v>
       </c>
